--- a/data analysis/奖励名单 核对.xlsx
+++ b/data analysis/奖励名单 核对.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31660" yWindow="3300" windowWidth="30700" windowHeight="14760" activeTab="1"/>
+    <workbookView xWindow="31100" yWindow="3800" windowWidth="30700" windowHeight="14760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="兑换码" sheetId="1" r:id="rId1"/>
@@ -1728,7 +1728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1736,26 +1736,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2040,213 +2046,213 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="20" style="9" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>569268031</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>984961031</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>652489031</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>547576031</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>461852031</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>199558031</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>718696031</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>217622031</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>118115031</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>435868031</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>158118031</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>652815031</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>722487031</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>931276031</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>315196031</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>492363031</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>615651031</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>615651031</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>947212031</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>259973031</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>726414031</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>135332031</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>539811031</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>326213031</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>442194031</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>726717031</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>972119031</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <v>336276031</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>633299031</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>191961031</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>195742031</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="6">
         <v>779176031</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2260,31 +2266,33 @@
   <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="9" customWidth="1"/>
+    <col min="3" max="5" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -2292,7 +2300,7 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>397214031</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2309,7 +2317,7 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>225942031</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2326,7 +2334,7 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>874192031</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2343,7 +2351,7 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>789733031</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2360,7 +2368,7 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>895743031</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2377,7 +2385,7 @@
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>232727031</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2394,7 +2402,7 @@
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>271823031</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2411,7 +2419,7 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>266261031</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2428,7 +2436,7 @@
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>178423031</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2445,7 +2453,7 @@
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>246323031</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2462,7 +2470,7 @@
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>269773031</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2479,7 +2487,7 @@
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="11">
         <v>191961031</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2496,7 +2504,7 @@
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="11">
         <v>336276031</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2513,7 +2521,7 @@
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>661715031</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2530,7 +2538,7 @@
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>861294031</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2547,7 +2555,7 @@
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <v>361664031</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2564,7 +2572,7 @@
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>988829031</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2581,7 +2589,7 @@
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="11">
         <v>633299031</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2598,7 +2606,7 @@
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>682394031</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2615,7 +2623,7 @@
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <v>416884031</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2632,7 +2640,7 @@
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="11">
         <v>726717031</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2649,7 +2657,7 @@
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="6">
         <v>735771031</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2666,7 +2674,7 @@
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="6">
         <v>947482031</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2683,7 +2691,7 @@
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="6">
         <v>984945031</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2700,7 +2708,7 @@
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="6">
         <v>858313031</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2717,7 +2725,7 @@
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="6">
         <v>296213031</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2734,7 +2742,7 @@
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="6">
         <v>748113031</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2751,7 +2759,7 @@
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="6">
         <v>222919031</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2768,7 +2776,7 @@
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="6">
         <v>915322031</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2785,7 +2793,7 @@
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="6">
         <v>666452031</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2802,7 +2810,7 @@
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="6">
         <v>516445031</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2819,7 +2827,7 @@
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="6">
         <v>252874031</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2836,7 +2844,7 @@
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="11">
         <v>539811031</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2853,7 +2861,7 @@
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="11">
         <v>326213031</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2870,7 +2878,7 @@
       <c r="A36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="6">
         <v>229717031</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2887,7 +2895,7 @@
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="6">
         <v>178268031</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2904,7 +2912,7 @@
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="6">
         <v>936832031</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2921,7 +2929,7 @@
       <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="11">
         <v>442194031</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2938,7 +2946,7 @@
       <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="6">
         <v>243945031</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2955,7 +2963,7 @@
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="6">
         <v>422765031</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2972,7 +2980,7 @@
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="6">
         <v>539141031</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2989,7 +2997,7 @@
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="6">
         <v>116227031</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -3006,7 +3014,7 @@
       <c r="A44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="6">
         <v>645231031</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -3023,7 +3031,7 @@
       <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="6">
         <v>532136031</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3040,7 +3048,7 @@
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="11">
         <v>779176031</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -3057,7 +3065,7 @@
       <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="6">
         <v>852939031</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -3074,7 +3082,7 @@
       <c r="A48" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="6">
         <v>758438031</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -3091,7 +3099,7 @@
       <c r="A49" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="6">
         <v>951626031</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3108,7 +3116,7 @@
       <c r="A50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="6">
         <v>262424031</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -3125,7 +3133,7 @@
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="6">
         <v>217214031</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3142,7 +3150,7 @@
       <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="6">
         <v>797997031</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -3159,7 +3167,7 @@
       <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="11">
         <v>195742031</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -3176,7 +3184,7 @@
       <c r="A54" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="6">
         <v>694128031</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -3193,7 +3201,7 @@
       <c r="A55" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="6">
         <v>515173031</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -3210,7 +3218,7 @@
       <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="6">
         <v>486576031</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -3227,7 +3235,7 @@
       <c r="A57" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="11">
         <v>726414031</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -3244,7 +3252,7 @@
       <c r="A58" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="6">
         <v>537131031</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -3261,7 +3269,7 @@
       <c r="A59" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="6">
         <v>342599031</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -3278,7 +3286,7 @@
       <c r="A60" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="6">
         <v>436786031</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3295,7 +3303,7 @@
       <c r="A61" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="6">
         <v>159117031</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -3312,7 +3320,7 @@
       <c r="A62" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="6">
         <v>576715031</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3329,7 +3337,7 @@
       <c r="A63" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="6">
         <v>244825031</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -3346,7 +3354,7 @@
       <c r="A64" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="6">
         <v>185114031</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -3363,7 +3371,7 @@
       <c r="A65" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="6">
         <v>538889031</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -3380,7 +3388,7 @@
       <c r="A66" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="6">
         <v>678125031</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -3397,7 +3405,7 @@
       <c r="A67" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="6">
         <v>721159031</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -3414,7 +3422,7 @@
       <c r="A68" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="6">
         <v>378496031</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -3431,7 +3439,7 @@
       <c r="A69" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="6">
         <v>436137031</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3448,7 +3456,7 @@
       <c r="A70" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="11">
         <v>615651031</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -3465,7 +3473,7 @@
       <c r="A71" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="6">
         <v>145493031</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -3482,7 +3490,7 @@
       <c r="A72" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="6">
         <v>973633031</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3499,7 +3507,7 @@
       <c r="A73" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="6">
         <v>589576031</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -3516,7 +3524,7 @@
       <c r="A74" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="6">
         <v>619412031</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -3533,7 +3541,7 @@
       <c r="A75" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="11">
         <v>947212031</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3550,7 +3558,7 @@
       <c r="A76" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="6">
         <v>255228031</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -3567,7 +3575,7 @@
       <c r="A77" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="6">
         <v>314478031</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3584,7 +3592,7 @@
       <c r="A78" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="6">
         <v>215156031</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -3601,7 +3609,7 @@
       <c r="A79" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="6">
         <v>131311031</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -3618,7 +3626,7 @@
       <c r="A80" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="6">
         <v>233162031</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -3635,7 +3643,7 @@
       <c r="A81" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="6">
         <v>427478031</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -3652,7 +3660,7 @@
       <c r="A82" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="6">
         <v>931595031</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -3669,7 +3677,7 @@
       <c r="A83" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="6">
         <v>399448031</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -3686,7 +3694,7 @@
       <c r="A84" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="6">
         <v>242611031</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -3703,7 +3711,7 @@
       <c r="A85" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="6">
         <v>596937031</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -3720,7 +3728,7 @@
       <c r="A86" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="6">
         <v>691431031</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -3737,7 +3745,7 @@
       <c r="A87" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="6">
         <v>396488031</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -3754,7 +3762,7 @@
       <c r="A88" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="6">
         <v>566895031</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -3771,7 +3779,7 @@
       <c r="A89" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="6">
         <v>953137031</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -3788,7 +3796,7 @@
       <c r="A90" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="6">
         <v>917253031</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -3805,7 +3813,7 @@
       <c r="A91" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="6">
         <v>772868031</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -3822,7 +3830,7 @@
       <c r="A92" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="6">
         <v>455163031</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -3839,7 +3847,7 @@
       <c r="A93" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="6">
         <v>367346031</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -3856,7 +3864,7 @@
       <c r="A94" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="6">
         <v>299222031</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -3873,7 +3881,7 @@
       <c r="A95" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="6">
         <v>951435031</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -3890,7 +3898,7 @@
       <c r="A96" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="6">
         <v>412787031</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -3907,7 +3915,7 @@
       <c r="A97" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="6">
         <v>758982031</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -3924,7 +3932,7 @@
       <c r="A98" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="6">
         <v>681568031</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3941,7 +3949,7 @@
       <c r="A99" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="6">
         <v>785844031</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -3958,7 +3966,7 @@
       <c r="A100" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="6">
         <v>783266031</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -3975,7 +3983,7 @@
       <c r="A101" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="6">
         <v>673397031</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -3992,7 +4000,7 @@
       <c r="A102" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="6">
         <v>862751031</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -4009,7 +4017,7 @@
       <c r="A103" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="6">
         <v>889861031</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -4026,7 +4034,7 @@
       <c r="A104" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="6">
         <v>597993031</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -4043,7 +4051,7 @@
       <c r="A105" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="6">
         <v>581621031</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -4060,7 +4068,7 @@
       <c r="A106" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="6">
         <v>167563031</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -4077,7 +4085,7 @@
       <c r="A107" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="6">
         <v>952481031</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -4094,7 +4102,7 @@
       <c r="A108" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="6">
         <v>289194031</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -4111,7 +4119,7 @@
       <c r="A109" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="6">
         <v>982667031</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -4128,7 +4136,7 @@
       <c r="A110" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="6">
         <v>218431031</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -4145,7 +4153,7 @@
       <c r="A111" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="6">
         <v>298564031</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -4162,7 +4170,7 @@
       <c r="A112" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="11">
         <v>315196031</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -4179,7 +4187,7 @@
       <c r="A113" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="6">
         <v>127657031</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -4196,7 +4204,7 @@
       <c r="A114" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="6">
         <v>957879031</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -4213,7 +4221,7 @@
       <c r="A115" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="6">
         <v>599624031</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -4230,7 +4238,7 @@
       <c r="A116" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="6">
         <v>291298031</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -4247,7 +4255,7 @@
       <c r="A117" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="6">
         <v>572794031</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -4264,7 +4272,7 @@
       <c r="A118" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="6">
         <v>912352031</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -4281,7 +4289,7 @@
       <c r="A119" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="6">
         <v>827245031</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -4298,7 +4306,7 @@
       <c r="A120" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="6">
         <v>618329031</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -4315,7 +4323,7 @@
       <c r="A121" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="6">
         <v>556955031</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -4332,7 +4340,7 @@
       <c r="A122" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="6">
         <v>198452031</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -4349,7 +4357,7 @@
       <c r="A123" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="6">
         <v>847438031</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -4366,7 +4374,7 @@
       <c r="A124" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="6">
         <v>362297031</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -4383,7 +4391,7 @@
       <c r="A125" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="6">
         <v>331672031</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -4400,7 +4408,7 @@
       <c r="A126" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="6">
         <v>479832031</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -4417,7 +4425,7 @@
       <c r="A127" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="6">
         <v>476236031</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -4434,7 +4442,7 @@
       <c r="A128" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="6">
         <v>395931031</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -4451,7 +4459,7 @@
       <c r="A129" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="6">
         <v>129574031</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -4468,7 +4476,7 @@
       <c r="A130" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="6">
         <v>267762031</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -4485,7 +4493,7 @@
       <c r="A131" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="6">
         <v>127985031</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -4502,7 +4510,7 @@
       <c r="A132" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="6">
         <v>656493031</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -4519,7 +4527,7 @@
       <c r="A133" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="6">
         <v>537444031</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -4536,7 +4544,7 @@
       <c r="A134" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="6">
         <v>166593031</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -4553,7 +4561,7 @@
       <c r="A135" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="6">
         <v>449444031</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -4570,7 +4578,7 @@
       <c r="A136" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="6">
         <v>157431031</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -4587,7 +4595,7 @@
       <c r="A137" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="6">
         <v>763633031</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -4604,7 +4612,7 @@
       <c r="A138" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="6">
         <v>831344031</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -4621,7 +4629,7 @@
       <c r="A139" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="6">
         <v>411186031</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -4638,7 +4646,7 @@
       <c r="A140" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="6">
         <v>289625031</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -4655,7 +4663,7 @@
       <c r="A141" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="6">
         <v>282469031</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -4672,7 +4680,7 @@
       <c r="A142" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="6">
         <v>124211031</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -4689,7 +4697,7 @@
       <c r="A143" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="6">
         <v>229916031</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -4706,7 +4714,7 @@
       <c r="A144" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="6">
         <v>821618031</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -4723,7 +4731,7 @@
       <c r="A145" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="6">
         <v>876395031</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -4740,7 +4748,7 @@
       <c r="A146" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="6">
         <v>551843031</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -4757,7 +4765,7 @@
       <c r="A147" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="6">
         <v>642714031</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -4774,7 +4782,7 @@
       <c r="A148" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="6">
         <v>524526031</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -4791,7 +4799,7 @@
       <c r="A149" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="11">
         <v>931276031</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -4808,7 +4816,7 @@
       <c r="A150" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="6">
         <v>439533031</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -4825,7 +4833,7 @@
       <c r="A151" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="6">
         <v>486857031</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -4842,7 +4850,7 @@
       <c r="A152" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="6">
         <v>249177031</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -4859,7 +4867,7 @@
       <c r="A153" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B153" s="11">
         <v>722487031</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -4876,7 +4884,7 @@
       <c r="A154" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="6">
         <v>681171031</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -4893,7 +4901,7 @@
       <c r="A155" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="6">
         <v>573227031</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -4910,7 +4918,7 @@
       <c r="A156" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="6">
         <v>497766031</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -4927,7 +4935,7 @@
       <c r="A157" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="6">
         <v>367634031</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -4944,7 +4952,7 @@
       <c r="A158" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="6">
         <v>381426031</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -4961,7 +4969,7 @@
       <c r="A159" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="6">
         <v>615516031</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -4978,7 +4986,7 @@
       <c r="A160" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="6">
         <v>159616031</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -4995,7 +5003,7 @@
       <c r="A161" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="6">
         <v>464293031</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -5012,7 +5020,7 @@
       <c r="A162" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="6">
         <v>195365031</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -5029,7 +5037,7 @@
       <c r="A163" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="6">
         <v>854592031</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -5046,7 +5054,7 @@
       <c r="A164" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="6">
         <v>234967031</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -5063,7 +5071,7 @@
       <c r="A165" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="6">
         <v>432176031</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -5080,7 +5088,7 @@
       <c r="A166" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="6">
         <v>418716031</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -5097,7 +5105,7 @@
       <c r="A167" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="6">
         <v>147559031</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -5114,7 +5122,7 @@
       <c r="A168" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="6">
         <v>479432031</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -5131,7 +5139,7 @@
       <c r="A169" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="6">
         <v>431413031</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -5148,7 +5156,7 @@
       <c r="A170" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="6">
         <v>754914031</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -5165,7 +5173,7 @@
       <c r="A171" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="6">
         <v>534482031</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -5182,7 +5190,7 @@
       <c r="A172" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="6">
         <v>518431031</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -5199,7 +5207,7 @@
       <c r="A173" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="6">
         <v>699827031</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -5216,7 +5224,7 @@
       <c r="A174" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="6">
         <v>195663031</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -5233,7 +5241,7 @@
       <c r="A175" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="6">
         <v>871894031</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -5250,7 +5258,7 @@
       <c r="A176" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="6">
         <v>385268031</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -5267,7 +5275,7 @@
       <c r="A177" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="6">
         <v>964544031</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -5284,7 +5292,7 @@
       <c r="A178" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="6">
         <v>325359031</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -5301,7 +5309,7 @@
       <c r="A179" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B179" s="6">
+      <c r="B179" s="11">
         <v>718696031</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -5318,7 +5326,7 @@
       <c r="A180" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="6">
         <v>816394031</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -5335,7 +5343,7 @@
       <c r="A181" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="6">
         <v>733682031</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -5352,7 +5360,7 @@
       <c r="A182" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="6">
         <v>751351031</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -5369,7 +5377,7 @@
       <c r="A183" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="6">
         <v>428863031</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -5386,7 +5394,7 @@
       <c r="A184" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="6">
         <v>555157031</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -5403,7 +5411,7 @@
       <c r="A185" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="6">
         <v>753856031</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -5420,7 +5428,7 @@
       <c r="A186" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="6">
         <v>824879031</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -5437,7 +5445,7 @@
       <c r="A187" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="6">
         <v>829999031</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -5454,7 +5462,7 @@
       <c r="A188" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="6">
         <v>691413031</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -5471,7 +5479,7 @@
       <c r="A189" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="6">
         <v>243261031</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -5488,7 +5496,7 @@
       <c r="A190" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B190" s="6">
+      <c r="B190" s="11">
         <v>972119031</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -5505,7 +5513,7 @@
       <c r="A191" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B191" s="6">
+      <c r="B191" s="11">
         <v>135332031</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -5522,7 +5530,7 @@
       <c r="A192" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="6">
         <v>929897031</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -5539,7 +5547,7 @@
       <c r="A193" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B193" s="6">
+      <c r="B193" s="11">
         <v>492363031</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -5556,7 +5564,7 @@
       <c r="A194" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B194" s="6">
+      <c r="B194" s="11">
         <v>158118031</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -5573,7 +5581,7 @@
       <c r="A195" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B195" s="6">
+      <c r="B195" s="11">
         <v>652489031</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -5590,7 +5598,7 @@
       <c r="A196" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="6">
         <v>694994031</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -5607,7 +5615,7 @@
       <c r="A197" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="6">
         <v>937657031</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -5624,7 +5632,7 @@
       <c r="A198" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="6">
         <v>722826031</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -5641,7 +5649,7 @@
       <c r="A199" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="6">
         <v>689441031</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -5658,7 +5666,7 @@
       <c r="A200" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="6">
         <v>443444031</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -5675,7 +5683,7 @@
       <c r="A201" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="6">
         <v>311348031</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -5692,7 +5700,7 @@
       <c r="A202" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="6">
         <v>564868031</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -5709,7 +5717,7 @@
       <c r="A203" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B203" s="6">
+      <c r="B203" s="11">
         <v>461852031</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -5726,7 +5734,7 @@
       <c r="A204" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="6">
         <v>469936031</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -5743,7 +5751,7 @@
       <c r="A205" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="6">
         <v>133865031</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -5760,7 +5768,7 @@
       <c r="A206" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="6">
         <v>547633031</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -5777,7 +5785,7 @@
       <c r="A207" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="6">
         <v>277286031</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -5794,7 +5802,7 @@
       <c r="A208" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="6">
         <v>519651031</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -5811,7 +5819,7 @@
       <c r="A209" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="6">
         <v>668293031</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -5828,7 +5836,7 @@
       <c r="A210" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="6">
         <v>416731031</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -5845,7 +5853,7 @@
       <c r="A211" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="6">
         <v>371561031</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -5862,7 +5870,7 @@
       <c r="A212" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="6">
         <v>897465031</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -5879,7 +5887,7 @@
       <c r="A213" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="6">
         <v>277281031</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -5896,7 +5904,7 @@
       <c r="A214" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="6">
         <v>625473031</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -5913,7 +5921,7 @@
       <c r="A215" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="6">
         <v>524894031</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -5930,7 +5938,7 @@
       <c r="A216" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="6">
         <v>561914031</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -5947,7 +5955,7 @@
       <c r="A217" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="6">
         <v>657475031</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -5964,7 +5972,7 @@
       <c r="A218" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="6">
         <v>492386031</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -5981,7 +5989,7 @@
       <c r="A219" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="6">
         <v>311978031</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -5998,7 +6006,7 @@
       <c r="A220" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B220" s="6">
+      <c r="B220" s="11">
         <v>652815031</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -6015,7 +6023,7 @@
       <c r="A221" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="6">
         <v>787247031</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -6032,7 +6040,7 @@
       <c r="A222" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="6">
         <v>731581031</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -6049,7 +6057,7 @@
       <c r="A223" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B223" s="6">
+      <c r="B223" s="11">
         <v>984961031</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -6066,7 +6074,7 @@
       <c r="A224" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="6">
         <v>982632031</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -6083,7 +6091,7 @@
       <c r="A225" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225" s="6">
         <v>422426031</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -6100,7 +6108,7 @@
       <c r="A226" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="6">
         <v>117322031</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -6117,7 +6125,7 @@
       <c r="A227" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227" s="6">
         <v>293191031</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -6134,7 +6142,7 @@
       <c r="A228" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="6">
         <v>243569031</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -6151,7 +6159,7 @@
       <c r="A229" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="6">
         <v>674648031</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -6168,7 +6176,7 @@
       <c r="A230" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="6">
         <v>887714031</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -6185,7 +6193,7 @@
       <c r="A231" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="6">
         <v>582344031</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -6202,7 +6210,7 @@
       <c r="A232" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="6">
         <v>481136031</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -6219,7 +6227,7 @@
       <c r="A233" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="6">
         <v>684325031</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -6236,7 +6244,7 @@
       <c r="A234" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="6">
         <v>947697031</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -6253,7 +6261,7 @@
       <c r="A235" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="6">
         <v>561697031</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -6270,7 +6278,7 @@
       <c r="A236" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B236" s="6">
+      <c r="B236" s="11">
         <v>259973031</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -6287,7 +6295,7 @@
       <c r="A237" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="6">
         <v>553582031</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -6304,7 +6312,7 @@
       <c r="A238" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238" s="6">
         <v>346831031</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -6321,7 +6329,7 @@
       <c r="A239" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239" s="6">
         <v>569268031</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -6338,7 +6346,7 @@
       <c r="A240" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="6">
         <v>259618031</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -6355,7 +6363,7 @@
       <c r="A241" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="6">
         <v>111874031</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -6372,7 +6380,7 @@
       <c r="A242" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="6">
         <v>595646031</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -6389,7 +6397,7 @@
       <c r="A243" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243" s="6">
         <v>736911031</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -6406,7 +6414,7 @@
       <c r="A244" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B244" s="6">
+      <c r="B244" s="11">
         <v>547576031</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -6423,7 +6431,7 @@
       <c r="A245" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="6">
         <v>935826031</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -6440,7 +6448,7 @@
       <c r="A246" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="6">
         <v>276679031</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -6457,7 +6465,7 @@
       <c r="A247" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B247" s="6">
+      <c r="B247" s="11">
         <v>118115031</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -6474,7 +6482,7 @@
       <c r="A248" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B248" s="6">
+      <c r="B248" s="11">
         <v>199558031</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -6491,7 +6499,7 @@
       <c r="A249" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249" s="6">
         <v>418624031</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -6508,7 +6516,7 @@
       <c r="A250" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250" s="6">
         <v>757285031</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -6525,7 +6533,7 @@
       <c r="A251" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B251" s="6">
+      <c r="B251" s="11">
         <v>435868031</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -6542,7 +6550,7 @@
       <c r="A252" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="6">
         <v>752942031</v>
       </c>
       <c r="C252" s="1" t="s">
@@ -6559,7 +6567,7 @@
       <c r="A253" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" s="6">
         <v>682548031</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -6576,7 +6584,7 @@
       <c r="A254" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="6">
         <v>981129031</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -6593,7 +6601,7 @@
       <c r="A255" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B255" s="6">
+      <c r="B255" s="11">
         <v>217622031</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -6610,7 +6618,7 @@
       <c r="A256" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="6">
         <v>846715031</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -6627,7 +6635,7 @@
       <c r="A257" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="6">
         <v>676886031</v>
       </c>
       <c r="C257" s="1" t="s">
